--- a/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-observation-common.xlsx
+++ b/jpcore-r4/feature/swg1-capablitystatement/StructureDefinition-jp-observation-common.xlsx
@@ -1246,7 +1246,7 @@
     <t>このObservationに関連する子リソースに関する情報。このObservationに関連する/属するパネル検査や検査セットなどのObservationグループ</t>
   </si>
   <si>
-    <t>この要素を使用する場合、observationには通常、値または関連するリソースのセットのいじれかを含む。その両方を含む場合もある。複数のobservationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照せよ。システムは、[QuestionnaireResponse]（questionnaireresponse.html）からの結果を計算して最終スコアにし、そのスコアをobservationとして表す場合があることに注意。</t>
+    <t>この要素を使用する場合、observationには通常、値または関連するリソースのセットのいずれかを含む。その両方を含む場合もある。複数のobservationをグループに一緒にまとめる方法については、以下の[メモ]（observation.html＃obsgrouping）を参照せよ。システムは、[QuestionnaireResponse]（questionnaireresponse.html）からの結果を計算して最終スコアにし、そのスコアをobservationとして表す場合があることに注意。</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
